--- a/Excel+Demo+Workbooks/Excel Demo Workbooks/Section4_Statistical_Functions.xlsx
+++ b/Excel+Demo+Workbooks/Excel Demo Workbooks/Section4_Statistical_Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Microsoft-Excel-Advanced-Formulas-And-Functions\Excel+Demo+Workbooks\Excel Demo Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E66511-BF5D-4B6A-A0DB-82B16AA9CBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2041EBF-C1AE-4BFB-A1A9-1F95648F33CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="748" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="748" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Salary Dashboard" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12554" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12555" uniqueCount="1722">
   <si>
     <t>ATL</t>
   </si>
@@ -5204,6 +5204,9 @@
   </si>
   <si>
     <t xml:space="preserve">Numberical Values: </t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -11807,8 +11810,8 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11919,13 +11922,19 @@
       <c r="A13" s="25" t="s">
         <v>1594</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="7">
+        <f>LARGE('Salary Data'!E:E, 10)</f>
+        <v>24642857</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>1609</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="7">
+        <f>SMALL('Salary Data'!E:E, 100)</f>
+        <v>405000</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -11940,8 +11949,8 @@
   </sheetPr>
   <dimension ref="A1:G4135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11993,6 +12002,9 @@
       </c>
       <c r="E2" s="4">
         <v>407000</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
